--- a/gd/主界面/loading功能设计.xlsx
+++ b/gd/主界面/loading功能设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -16,50 +16,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
   <si>
     <t>触发条件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>游戏中进行场景切换时触发Loading页面，例：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录游戏 —&gt; 游戏主界面</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>战斗对局（剧情副本、通天塔副本等各种副本）—&gt; 游戏主界面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>游戏主界面—&gt; 战斗对局（剧情副本、通天塔副本、PVP战斗等各种战斗）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>页面显示逻辑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>具体流程如下</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>目标场景：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体分组如下：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>组1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>默认组</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>组2</t>
@@ -75,90 +67,484 @@
   </si>
   <si>
     <t>1.当加载Loading界面时，首先读取要加载的目标场景</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>加载逻辑</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>进入Loading页面后，加载下一个场景内容，根据加载进度，进度条逐渐增多，直到加载完成，进度条加载到100%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>逻辑部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UI部分</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载条</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于展示一些游戏的提示信息。</t>
+  </si>
+  <si>
+    <t>加载条</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>由0到100%，用于展示当前加载进度，会随着加载进行而不断增长，直到100%进入下一个页面。进度条上会有当前加载状态的百分比提示。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示在进度条上方，如示意图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的提示信息需求在一行显示不下时，可换行显示，换行时，提示信息向上顶</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一行时</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>两行时</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading配置表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号，从1开始</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档名称</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>加载条</t>
+    <t>文档目的</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>背景图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于展示一些游戏的提示信息。</t>
-  </si>
-  <si>
-    <t>加载条</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>由0到100%，用于展示当前加载进度，会随着加载进行而不断增长，直到100%进入下一个页面。进度条上会有当前加载状态的百分比提示。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示在进度条上方，如示意图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的提示信息需求在一行显示不下时，可换行显示，换行时，提示信息向上顶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>比如：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一行时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>两行时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP战斗的loading加载界面采用不同逻辑，详见文档《PVP玩法设计》的“PVPloading界面”切页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading配置表</t>
+    <t>目标读者</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>所有</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档路径</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档状态</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>编写中</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(策划)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>√</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中（策划）</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核(QC)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改中(QC)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>待3方</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>已定案</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档历史</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本号</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>知会同事</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记颜色</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>修订人</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ver 0.0.1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading功能设计</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划loading功能</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>有关会议</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与同事</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本概要</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">svn://10.21.2.47/gd/主界面/loading功能设计.xlsx
+</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示内容</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个目标场景对应着若干张loading图及若干条提示信息。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.若目标场景没有配置loading图和提示信息，则随机使用默认组中的一张loading图和一条提示信息作为当前loading界面</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图会一直保持适应窗口大小，跟随客户端窗口改变大小。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术需求</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1张背景图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 通天塔</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 试炼组（金币+经验）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个展示内容，主题分别为金币和经验试炼各一个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3个展示内容，主题分别为三个塔各一个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 展示宠物</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示内容为稀有度为S级及以上的怪物各一个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>剧情副本组（instanceEntry表中的“type”=1）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔组（instanceEntry表中的“type”=3）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会任务副本组（instanceEntry表中的“type”=4）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>组6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS：默认组是指当随机到的内容没有配置内容的时候，则随机使用默认组中的一张loading图和一条提示信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景图+展示内容+提示文字</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>tips</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading图及提示信息相互独立，选中目标场景这组后会随机显示一张loading图和一条提示信息。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼组（金币+经验）（instanceEntry表中的“type”=2）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写多语言id，多个用逗号隔开</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading页面触发时，会根据目标场景（即将进入的下一个场景，Loading页面将要加载的场景）来显示相应的loading图和提示信息</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading页面中正中间用于展示的图片，即上文中描述的loading图，包含背景图、展示内容、提示文字三部分。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示内容从配置读取</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊的：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家登录游戏到进入主界面的loading背景不走上面的通用逻辑，而是使用一张固定的美术图（是单纯的一张图，不是背景图、展示内容、提示信息拼的）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置结构：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading图包含背景图、展示内容、提示文字三部分。（这三个东西是啥可以看下下面的UI示意图）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>loading.csv</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标场景具体分组如下：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字与展示内容的内容对应关系：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字、展示内容与背景图的位置对应关系：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置只给出坐标组编号，所有坐标组的实际位置都存在一个prefab里</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置使用的背景图资源</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示内容组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Loading页面会对当前页面对应的目标场景，选出将要显示的loading图和提示信息。</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>loading图：</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>从loading表确定需要的背景图，并从对应的展示内容组里随机抽取一个展示内容，根据loadinglocation表确定该展示内容及其对应提示文字在背景图上的位置</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>从loading表里面该目标场景对应的的提示信息组随机抽一个</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP战斗的loading加载界面存在特殊逻辑，详见文档《PVP玩法设计》的“PVPloading界面”切页</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改配置方式</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower_instance_title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerBoss_instance_title</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading配置表loading.csv</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>一组提示文字与展示内容在背景图上的位置固定，对应一个坐标组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字与展示内容在背景图上的具体位置通过配置表loading.csv的picture字段确定</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture字段中配置的为展示内容组，多个用，隔开；单个的配置格式为：展示内容资源名_坐标组编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该行配置的目标场景下，能够出现的展示内容。单个的配置格式为：展示内容资源名_坐标组编号，多个用，隔开，不需要此处的配置填写0。</t>
+  </si>
+  <si>
+    <t>在该行配置的目标场景下，能够出现的展示内容。单个的配置格式为：展示内容资源名_坐标组编号，多个用，隔开，不需要此处的配置填写0。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果展示内容为通天塔玩法，则显示“通天塔“（展示内容资源命名方式：loading2_XXX，程序通过loading2，确定提示文字内容的多语言id为towerBoss_instance_title）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>s</t>
+      <t xml:space="preserve">配置使用该loading信息的目标场景组
+1=默认
+2=剧情副本组
+3=试炼组（金币+经验）
+4=通天塔组
+5=公会任务副本组
+</t>
     </r>
     <r>
       <rPr>
@@ -168,263 +554,14 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>cene</t>
+      <t>6=pvp</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号，从1开始</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置使用该loading信息的目标场景组
-1=默认
-2=剧情副本组
-3=试炼组（金币+经验）
-4=通天塔组
-5=公会任务副本组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置使用该loading信息的背景图资源</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档目的</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标读者</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档路径</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>编写中</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审核(策划)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改中（策划）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待审核(QC)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改中(QC)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待3方</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已定案</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档历史</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>知会同事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记颜色</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>修订人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ver 0.0.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MT</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading功能设计</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>规划loading功能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>有关会议</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>会议日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与同事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本概要</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">svn://10.21.2.47/gd/主界面/loading功能设计.xlsx
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">配置使用该loading信息的目标场景组
 </t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个目标场景对应着若干张loading图及若干条提示信息。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.若目标场景没有配置loading图和提示信息，则随机使用默认组中的一张loading图和一条提示信息作为当前loading界面</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图会一直保持适应窗口大小，跟随客户端窗口改变大小。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>示例：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1张背景图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 通天塔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 试炼组（金币+经验）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个展示内容，主题分别为金币和经验试炼各一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个展示内容，主题分别为三个塔各一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 展示宠物</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示内容为稀有度为S级及以上的怪物各一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剧情副本组（instanceEntry表中的“type”=1）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通天塔组（instanceEntry表中的“type”=3）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会任务副本组（instanceEntry表中的“type”=4）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>组6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS：默认组是指当随机到的内容没有配置内容的时候，则随机使用默认组中的一张loading图和一条提示信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示文字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图+展示内容+提示文字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -434,121 +571,157 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>ips</t>
+      <t>1=</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置使用该loading信息的目标场景组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>tips</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading图及提示信息相互独立，选中目标场景这组后会随机显示一张loading图和一条提示信息。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置结构如下：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading图包含背景图、展示内容、提示文字三部分。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>试炼组（金币+经验）（instanceEntry表中的“type”=2）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置使用该loading信息的展示内容资源，多个用逗号隔开</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写多语言id，多个用逗号隔开</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图对于每个目标场景组只能有1个，展示内容和提示文字可以有多个。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading图：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从配置读取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>展示内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>从配置的所有里面随机抽一个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息</t>
-  </si>
-  <si>
-    <t>2.Loading页面会对当前页面对应的目标场景，选出将要显示的loading图和loading内容。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading页面触发时，会根据目标场景（即将进入的下一个场景，Loading页面将要加载的场景）来显示相应的loading图和提示信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果展示内容为试炼玩法，则显示“愿望树”</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tower_instance_title</t>
-  </si>
-  <si>
-    <t>多语言ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果展示内容为通天塔玩法，则显示“通天塔“</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>towerBoss_instance_title</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">默认
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">剧情副本组
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>试炼组（金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">经验）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">通天塔组
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">公会任务副本组
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6=pvp</t>
+    </r>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>1张背景图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果展示内容为试炼玩法，则显示“愿望树”（展示内容资源命名方式：loading1_XXX，程序通过loading1，确定提示文字内容的多语言id为tower_instance_title）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>如果展示内容为怪物，则显示怪物名称（怪物的展示内容资源命名方式：loading_怪物id，然后程序解析出怪物id，在unitData表中查找怪物名称进行显示）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading页面中正中间用于展示的图片，即上文中描述的loading图，包含背景图、展示内容、提示文字三部分。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示内容从配置读取</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>以花魄为例，假如花魄的id为xgHuapo2，则花魄的展示内容资源名为loading_xgHuapo2，假设其对应坐标组编号为1，则此处配置为loading_xgHuapo2_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -556,6 +729,34 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -648,8 +849,16 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +874,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF66CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,129 +1080,178 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,11 +1264,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FF00CCFF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF3399FF"/>
-      <color rgb="FFFFCCCC"/>
       <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
@@ -1025,13 +1289,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>173934</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1077,13 +1341,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1131,13 +1395,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1207,13 +1471,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>579783</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>629478</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1257,13 +1521,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>347870</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>624095</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1307,13 +1571,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>326336</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>86139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>602561</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>89452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1357,13 +1621,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>607945</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>160680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>646046</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>16563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1422,13 +1686,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>107673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1476,13 +1740,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8281</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1552,13 +1816,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>309771</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>19876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>347871</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>82824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1617,13 +1881,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>91117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>16574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1671,13 +1935,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8281</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1747,13 +2011,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>309771</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>3320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>347871</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>66268</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1810,16 +2074,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>510208</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>124240</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>303143</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>558250</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>177249</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351185</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>61293</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1828,7 +2092,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2572578" y="9740349"/>
+          <a:off x="3052969" y="12978849"/>
           <a:ext cx="1422955" cy="1916596"/>
           <a:chOff x="2804491" y="6004892"/>
           <a:chExt cx="1422955" cy="1916596"/>
@@ -2075,13 +2339,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>354496</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>139148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>588065</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>140805</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2125,14 +2389,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>168115</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2172,14 +2436,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>612914</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>430695</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2219,13 +2483,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8281</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>604629</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>91108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2266,13 +2530,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>289892</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>563219</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2320,13 +2584,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>82827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2402,13 +2666,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>599663</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>119268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>637764</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>182216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2467,14 +2731,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>265043</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>421717</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>99393</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2514,14 +2778,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>177248</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>102705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>682486</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>86140</xdr:rowOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2561,13 +2825,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>260072</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>23191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>168964</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2608,13 +2872,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>541683</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>127553</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2662,13 +2926,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>268357</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>549965</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>102706</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2744,13 +3008,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>163998</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>139147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>202098</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>202095</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2809,14 +3073,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>207065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161045</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2856,13 +3120,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>599661</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>94424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>417442</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>77859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2903,13 +3167,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3311</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>14909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>599659</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>102705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2950,13 +3214,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276639</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>11597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>549966</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>144119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3004,13 +3268,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3313</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>110989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>284921</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>94425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3086,13 +3350,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>586410</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>130866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>624511</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>193813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3151,13 +3415,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>157369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>596348</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3201,13 +3465,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>629478</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>119269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>596348</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3251,13 +3515,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331304</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>107675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3322,13 +3586,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>682487</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>53010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>516835</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>202096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3393,13 +3657,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371060</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>97737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>205408</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>39758</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3464,13 +3728,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>467138</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>177248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>588065</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3529,13 +3793,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3579,13 +3843,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>521807</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>54666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>339587</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3917,8 +4181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3930,10 +4194,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="16"/>
@@ -3956,10 +4220,10 @@
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="16"/>
@@ -3982,10 +4246,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="16"/>
@@ -4008,10 +4272,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="19"/>
@@ -4045,7 +4309,7 @@
     </row>
     <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
@@ -4058,110 +4322,110 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="14"/>
-      <c r="B11" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
+      <c r="B11" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C12" s="21"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="45"/>
       <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
       <c r="B13" s="20" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="36"/>
+        <v>44</v>
+      </c>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="20" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="39"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="15"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C15" s="22"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C16" s="22"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="15"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="20" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C17" s="22"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="15"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47"/>
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
@@ -4177,25 +4441,25 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
@@ -4214,39 +4478,51 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C22" s="25">
         <v>42423</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
     </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="25">
+        <v>42425</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="G23" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4261,7 +4537,7 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4269,22 +4545,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:R120"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
-        <v>18</v>
+      <c r="A1" s="26" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -4303,61 +4581,62 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4366,25 +4645,32 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
@@ -4393,12 +4679,12 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="41"/>
+      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -4408,10 +4694,10 @@
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4426,10 +4712,10 @@
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4444,10 +4730,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4462,10 +4748,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4476,160 +4762,140 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>94</v>
-      </c>
+      <c r="D17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="4" t="s">
-        <v>95</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="C20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="42" t="s">
-        <v>108</v>
+      <c r="D21" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="D22" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-    </row>
-    <row r="24" spans="2:13" ht="99" x14ac:dyDescent="0.35">
+      <c r="D23" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>107</v>
-      </c>
+      <c r="D24" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="42"/>
+      <c r="D25" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="6"/>
       <c r="J25" s="6"/>
@@ -4637,362 +4903,581 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C27" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="C31" s="35"/>
+      <c r="D31" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="6"/>
-      <c r="K32" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="33" t="s">
+        <v>101</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="6"/>
-      <c r="K33" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="C34" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
-      <c r="C35" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C35" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="61"/>
+      <c r="F35" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="58"/>
+      <c r="I35" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J35" s="12"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="40"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B38" s="7"/>
-      <c r="C38" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="C36" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="61"/>
+      <c r="F36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="58"/>
+      <c r="I36" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" s="12"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+    </row>
+    <row r="37" spans="2:17" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+      <c r="C37" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="62"/>
+      <c r="F37" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="59" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="59"/>
+      <c r="I37" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="13"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+    </row>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="63" t="s">
+        <v>136</v>
+      </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B39" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B39" s="2"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="G39" s="28"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A40" s="40" t="s">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+      <c r="C40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B41" s="2"/>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B42" s="2"/>
+      <c r="C42" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B43" s="2"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="36"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B44" s="2"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B46" s="2"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B47" s="2"/>
+      <c r="C47" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B48" s="2"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B50" s="7"/>
+      <c r="C50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B51" s="7"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="A52" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="A53" s="26"/>
+      <c r="C53" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I61" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I64" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="I65" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="18" x14ac:dyDescent="0.15">
-      <c r="A41" s="40"/>
-      <c r="C41" s="42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="I47" s="1" t="s">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B68" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B70" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C71" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C72" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C73" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C74" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C89" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="K90" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="K92" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C98" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D99" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E100" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E101" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D102" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E103" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E104" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K104" s="31"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D105" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E106" s="63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E107" s="63" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B108" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C109" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C110" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C111" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D115" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B119" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="I49" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I52" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I53" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C59" s="42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C60" s="42" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C61" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C62" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C77" s="42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="K78" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="K80" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C86" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D87" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E88" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E89" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D90" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E91" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E92" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K92" s="46"/>
-    </row>
-    <row r="93" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D93" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="94" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E94" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E95" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B96" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C97" s="1" t="s">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C120" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C98" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C99" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C100" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D103" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B107" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C108" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <mergeCells count="6">
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5004,82 +5489,81 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="4" width="18.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>98</v>
+      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="132" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="148.5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="44" t="s">
-        <v>107</v>
+        <v>33</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>

--- a/gd/主界面/loading功能设计.xlsx
+++ b/gd/主界面/loading功能设计.xlsx
@@ -4,54 +4,59 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
     <sheet name="loading逻辑" sheetId="1" r:id="rId2"/>
     <sheet name="配置结构" sheetId="2" r:id="rId3"/>
+    <sheet name="任务拆分" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_1个展示内容_主题为金币和经验试炼的果子图">loading逻辑!$E$101</definedName>
+    <definedName name="资源与坐标组对应关系配置表loadinglocation.csv">loading逻辑!$L$32</definedName>
+  </definedNames>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="176">
   <si>
     <t>触发条件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>游戏中进行场景切换时触发Loading页面，例：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>战斗对局（剧情副本、通天塔副本等各种副本）—&gt; 游戏主界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>游戏主界面—&gt; 战斗对局（剧情副本、通天塔副本、PVP战斗等各种战斗）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>页面显示逻辑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>具体流程如下</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目标场景：</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>组1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>组2</t>
@@ -67,484 +72,479 @@
   </si>
   <si>
     <t>1.当加载Loading界面时，首先读取要加载的目标场景</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>加载逻辑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>进入Loading页面后，加载下一个场景内容，根据加载进度，进度条逐渐增多，直到加载完成，进度条加载到100%</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>逻辑部分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UI部分</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>加载条</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>背景图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>用于展示一些游戏的提示信息。</t>
   </si>
   <si>
     <t>加载条</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>由0到100%，用于展示当前加载进度，会随着加载进行而不断增长，直到100%进入下一个页面。进度条上会有当前加载状态的百分比提示。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>显示在进度条上方，如示意图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>显示的提示信息需求在一行显示不下时，可换行显示，换行时，提示信息向上顶</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>比如：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>一行时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>两行时</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading配置表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>序号，从1开始</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景图</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.0.1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>loading功能设计</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>规划loading功能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">svn://10.21.2.47/gd/主界面/loading功能设计.xlsx
 </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>展示内容</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>每个目标场景对应着若干张loading图及若干条提示信息。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3.若目标场景没有配置loading图和提示信息，则随机使用默认组中的一张loading图和一条提示信息作为当前loading界面</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>背景图会一直保持适应窗口大小，跟随客户端窗口改变大小。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>示例：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1张背景图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2. 通天塔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1. 试炼组（金币+经验）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个展示内容，主题分别为金币和经验试炼各一个</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>3个展示内容，主题分别为三个塔各一个</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3. 展示宠物</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>展示内容为稀有度为S级及以上的怪物各一个</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>剧情副本组（instanceEntry表中的“type”=1）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>通天塔组（instanceEntry表中的“type”=3）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>公会任务副本组（instanceEntry表中的“type”=4）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>组6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PS：默认组是指当随机到的内容没有配置内容的时候，则随机使用默认组中的一张loading图和一条提示信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>提示文字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>背景图+展示内容+提示文字</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>scene</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>tips</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>loading图及提示信息相互独立，选中目标场景这组后会随机显示一张loading图和一条提示信息。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>试炼组（金币+经验）（instanceEntry表中的“type”=2）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>填写多语言id，多个用逗号隔开</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>Loading页面触发时，会根据目标场景（即将进入的下一个场景，Loading页面将要加载的场景）来显示相应的loading图和提示信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>提示信息：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Loading页面中正中间用于展示的图片，即上文中描述的loading图，包含背景图、展示内容、提示文字三部分。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>显示内容从配置读取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>特殊的：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>玩家登录游戏到进入主界面的loading背景不走上面的通用逻辑，而是使用一张固定的美术图（是单纯的一张图，不是背景图、展示内容、提示信息拼的）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>配置结构：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>loading图包含背景图、展示内容、提示文字三部分。（这三个东西是啥可以看下下面的UI示意图）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading.csv</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>目标场景具体分组如下：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提示文字与展示内容的内容对应关系：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提示文字、展示内容与背景图的位置对应关系：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>配置只给出坐标组编号，所有坐标组的实际位置都存在一个prefab里</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置使用的背景图资源</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>background</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>展示内容组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提示信息组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.Loading页面会对当前页面对应的目标场景，选出将要显示的loading图和提示信息。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading图：</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>从loading表里面该目标场景对应的的提示信息组随机抽一个</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVP战斗的loading加载界面存在特殊逻辑，详见文档《PVP玩法设计》的“PVPloading界面”切页</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改配置方式</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>towerBoss_instance_title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading配置表loading.csv</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>一组提示文字与展示内容在背景图上的位置固定，对应一个坐标组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1张背景图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个展示内容，主题为金币和经验试炼的果子图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1个展示内容，主题三个塔</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方后回归</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>试炼和通天塔的美术资源需求改为各1张</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>坐标组编号</t>
+  </si>
+  <si>
+    <t>序号，从1开始</t>
+  </si>
+  <si>
+    <t>提示文字与展示内容在背景图上的具体位置通过配置表loadinglocation.csv确定</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>loadinglocation.csv表中给出所有提示文字+展示内容组与坐标组的对应关系</t>
+  </si>
+  <si>
+    <t>配置使用该loading信息的目标场景组
+1=默认；2=剧情副本组；3=试炼组（金币+经验）；4=通天塔组；5=公会任务副本组；6=pvp</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改配置方式（拆成2个表）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>X张背景图（X由美术根据效果定）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源与坐标组对应关系配置表loadinglocation.csv</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>picture</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.Loading页面会对当前页面对应的目标场景，选出将要显示的loading图和提示信息。</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading图：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>从loading表确定需要的背景图，并从对应的展示内容组里随机抽取一个展示内容，根据loadinglocation表确定该展示内容及其对应提示文字在背景图上的位置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>从loading表里面该目标场景对应的的提示信息组随机抽一个</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVP战斗的loading加载界面存在特殊逻辑，详见文档《PVP玩法设计》的“PVPloading界面”切页</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改配置方式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tower_instance_title</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>towerBoss_instance_title</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>loading配置表loading.csv</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>一组提示文字与展示内容在背景图上的位置固定，对应一个坐标组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示文字与展示内容在背景图上的具体位置通过配置表loading.csv的picture字段确定</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture字段中配置的为展示内容组，多个用，隔开；单个的配置格式为：展示内容资源名_坐标组编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>在该行配置的目标场景下，能够出现的展示内容。单个的配置格式为：展示内容资源名_坐标组编号，多个用，隔开，不需要此处的配置填写0。</t>
-  </si>
-  <si>
-    <t>在该行配置的目标场景下，能够出现的展示内容。单个的配置格式为：展示内容资源名_坐标组编号，多个用，隔开，不需要此处的配置填写0。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果展示内容为通天塔玩法，则显示“通天塔“（展示内容资源命名方式：loading2_XXX，程序通过loading2，确定提示文字内容的多语言id为towerBoss_instance_title）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa,bbbb,vvvv</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">配置使用该loading信息的目标场景组
-1=默认
-2=剧情副本组
-3=试炼组（金币+经验）
-4=通天塔组
-5=公会任务副本组
-</t>
+      <t>h</t>
     </r>
     <r>
       <rPr>
@@ -554,14 +554,19 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>6=pvp</t>
+      <t>uapo,langren,xiaochou</t>
     </r>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>huapo</t>
+  </si>
+  <si>
+    <t>langren</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">配置使用该loading信息的目标场景组
-</t>
+      <t>h</t>
     </r>
     <r>
       <rPr>
@@ -571,7 +576,63 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1=</t>
+      <t>uapo,langren</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaochou</t>
+  </si>
+  <si>
+    <t>展示内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该行配置的目标场景下，能够出现的展示内容。配置的是内容与loadinglocation表的picture字段对应。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写展示内容</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示内容资源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置使用该行配置的展示内容资源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>从1开始，对应存储左边关系的prefab里的坐标组编号</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置使用该行配置的展示内容配套的资源</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>background</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>background</t>
     </r>
     <r>
       <rPr>
@@ -581,8 +642,49 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">默认
-</t>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>background2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>background3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示文字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置使用该行配置的展示内容对应的提示文字的多语言id</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower_instance_title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果展示内容为怪物，则显示怪物名称</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果展示内容为试炼玩法，则显示“愿望树”</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果展示内容为通天塔玩法，则显示“通天塔“</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>从loading表的展示内容组里随机抽取一个展示内容，然后索引到loadinglocation表，确定该展示内容使用的坐标组编号、背景图及对应提示文字</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
     </r>
     <r>
       <rPr>
@@ -592,7 +694,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2=</t>
+      <t>aa</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
     </r>
     <r>
       <rPr>
@@ -602,8 +710,13 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">剧情副本组
-</t>
+      <t>ddd</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
     </r>
     <r>
       <rPr>
@@ -613,115 +726,68 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>3=</t>
+      <t>ggg</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>试炼组（金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">经验）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">通天塔组
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">公会任务副本组
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6=pvp</t>
-    </r>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>1张背景图</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果展示内容为试炼玩法，则显示“愿望树”（展示内容资源命名方式：loading1_XXX，程序通过loading1，确定提示文字内容的多语言id为tower_instance_title）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果展示内容为怪物，则显示怪物名称（怪物的展示内容资源命名方式：loading_怪物id，然后程序解析出怪物id，在unitData表中查找怪物名称进行显示）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>以花魄为例，假如花魄的id为xgHuapo2，则花魄的展示内容资源名为loading_xgHuapo2，假设其对应坐标组编号为1，则此处配置为loading_xgHuapo2_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加任务拆分</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应工时（单位：d）</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划验收+配置任务</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.26</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>loading</t>
+  </si>
+  <si>
+    <t>通天塔金币经验</t>
+  </si>
+  <si>
+    <t>怪物</t>
+  </si>
+  <si>
+    <t>0.5*10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +795,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -857,8 +930,25 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,6 +970,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1076,194 +1178,288 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2 2 2" xfId="2"/>
     <cellStyle name="常规 20" xfId="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00CC99"/>
+      <color rgb="FF33CCCC"/>
+      <color rgb="FF00FFCC"/>
+      <color rgb="FF00FF99"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FF66CCFF"/>
       <color rgb="FF00CCFF"/>
@@ -2092,7 +2288,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3052969" y="12978849"/>
+          <a:off x="3052969" y="12556436"/>
           <a:ext cx="1422955" cy="1916596"/>
           <a:chOff x="2804491" y="6004892"/>
           <a:chExt cx="1422955" cy="1916596"/>
@@ -2730,13 +2926,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>265043</xdr:colOff>
+      <xdr:colOff>265044</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>421717</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>422414</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
@@ -2756,8 +2952,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6452152" y="9790045"/>
-          <a:ext cx="4281413" cy="2368826"/>
+          <a:off x="6452153" y="16283610"/>
+          <a:ext cx="4191000" cy="2368826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2871,15 +3067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541683</xdr:colOff>
+      <xdr:colOff>491989</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>127553</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>207067</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2888,8 +3084,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6728792" y="11872292"/>
-          <a:ext cx="3710609" cy="132522"/>
+          <a:off x="6679098" y="18365857"/>
+          <a:ext cx="3748708" cy="129208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4179,10 +4375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4193,336 +4389,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B5" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="13"/>
+      <c r="B18" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="24">
+        <v>42423</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C23" s="24">
+        <v>42425</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="G23" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C24" s="24">
+        <v>42426</v>
+      </c>
+      <c r="E24" s="63"/>
+      <c r="G24" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G25" s="65"/>
+      <c r="H25" s="66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G26" s="65"/>
+      <c r="H26" s="66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G27" s="65"/>
+      <c r="H27" s="70" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G28" s="65"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="B29" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="15"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="14"/>
-      <c r="B15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="14"/>
-      <c r="B16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="14"/>
-      <c r="B17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="15"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="25">
-        <v>42423</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C23" s="25">
-        <v>42425</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="G23" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4537,7 +4766,11 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H25" location="_1个展示内容_主题为金币和经验试炼的果子图" display="试炼和通天塔的美术资源需求改为各1张"/>
+    <hyperlink ref="H26" location="资源与坐标组对应关系配置表loadinglocation.csv" display="修改配置方式（拆成2个表）"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -4545,10 +4778,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R120"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4557,11 +4790,13 @@
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="16.875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4611,7 +4846,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -4625,7 +4860,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4636,7 +4871,7 @@
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4646,7 +4881,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4666,7 +4901,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="27"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -4679,7 +4914,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -4697,7 +4932,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -4715,7 +4950,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -4733,7 +4968,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -4748,10 +4983,10 @@
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -4762,11 +4997,11 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -4774,7 +5009,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
@@ -4784,10 +5019,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4799,10 +5034,10 @@
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4814,11 +5049,11 @@
       <c r="K20" s="6"/>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -4829,324 +5064,438 @@
       <c r="K21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="G22" s="35"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="70" t="s">
+        <v>154</v>
+      </c>
+      <c r="M22" s="78"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="G23" s="35"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="78"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B24" s="71"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
+      <c r="C25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
-      <c r="C27" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35" t="s">
+      <c r="C28" s="34"/>
+      <c r="D28" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
+      <c r="C31" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="C32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="80"/>
+      <c r="R32" s="30"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
-      <c r="C33" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="57"/>
+      <c r="F33" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" s="59"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="M33" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="N33" s="67" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="P33" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q33" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="R33" s="76"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
-      <c r="C34" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C34" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="59"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="68" t="s">
+        <v>120</v>
+      </c>
+      <c r="M34" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="N34" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="O34" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="P34" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="R34" s="76"/>
+    </row>
+    <row r="35" spans="2:18" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="2"/>
       <c r="C35" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="58"/>
+      <c r="F35" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="12" t="s">
-        <v>90</v>
-      </c>
+      <c r="G35" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="87"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B36" s="2"/>
-      <c r="C36" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J36" s="12"/>
-      <c r="K36" s="40"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-    </row>
-    <row r="37" spans="2:17" ht="151.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="2"/>
-      <c r="C37" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="62" t="s">
+      <c r="K35" s="41"/>
+      <c r="L35" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="M35" s="82" t="s">
+        <v>139</v>
+      </c>
+      <c r="N35" s="82" t="s">
+        <v>144</v>
+      </c>
+      <c r="O35" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="P35" s="83" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q35" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="R35" s="33"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B36" s="71"/>
+      <c r="C36" s="72">
+        <v>1</v>
+      </c>
+      <c r="D36" s="89">
+        <v>1</v>
+      </c>
+      <c r="E36" s="89"/>
+      <c r="F36" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="91" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="13"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="63" t="s">
+      <c r="H36" s="90"/>
+      <c r="I36" s="74"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74">
+        <v>1</v>
+      </c>
+      <c r="M36" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="P36" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q36" s="70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B37" s="71"/>
+      <c r="C37" s="72">
+        <v>2</v>
+      </c>
+      <c r="D37" s="89">
+        <v>2</v>
+      </c>
+      <c r="E37" s="89"/>
+      <c r="F37" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="90"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74">
+        <v>2</v>
+      </c>
+      <c r="M37" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2</v>
+      </c>
+      <c r="O37" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="P37" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q37" s="70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B38" s="71"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74">
+        <v>3</v>
+      </c>
+      <c r="M38" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="P38" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q38" s="70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="72"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="72"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B40" s="2"/>
       <c r="C40" s="3" t="s">
         <v>5</v>
@@ -5156,7 +5505,7 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
         <v>13</v>
@@ -5167,10 +5516,10 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -5178,54 +5527,54 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="37"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="37"/>
-      <c r="Q43" s="37"/>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="88"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="69"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="37"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="37"/>
-      <c r="Q44" s="37"/>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="30"/>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
       <c r="C45" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -5233,7 +5582,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -5242,20 +5591,20 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
-      <c r="C47" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C47" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B48" s="2"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -5299,14 +5648,14 @@
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="A53" s="26"/>
-      <c r="C53" s="28" t="s">
-        <v>87</v>
+      <c r="A53" s="25"/>
+      <c r="C53" s="27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
@@ -5316,7 +5665,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="I61" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -5330,43 +5679,43 @@
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="38" t="s">
-        <v>118</v>
+      <c r="B68" s="37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B70" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C71" s="28" t="s">
-        <v>97</v>
+      <c r="C71" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C72" s="28" t="s">
-        <v>98</v>
+      <c r="C72" s="27" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.15">
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C89" s="28" t="s">
-        <v>87</v>
+      <c r="C89" s="27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.15">
       <c r="K90" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.15">
@@ -5376,53 +5725,60 @@
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C98" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D99" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E100" s="1" t="s">
-        <v>74</v>
+      <c r="E100" s="61" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E101" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="E101" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="63"/>
+      <c r="G101" s="63"/>
+      <c r="H101" s="63"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D102" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.15">
       <c r="E103" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E104" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K104" s="31"/>
+      <c r="E104" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F104" s="63"/>
+      <c r="G104" s="63"/>
+      <c r="K104" s="30"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D105" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E106" s="63" t="s">
-        <v>133</v>
-      </c>
+      <c r="E106" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F106" s="63"/>
+      <c r="G106" s="63"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E107" s="63" t="s">
-        <v>80</v>
+      <c r="E107" s="42" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.15">
@@ -5469,15 +5825,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D35:E35"/>
+  <mergeCells count="10">
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5486,10 +5846,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5501,70 +5861,327 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="73"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="92"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="F3" s="92"/>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="148.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
-        <v>33</v>
-      </c>
       <c r="B4" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" s="85"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="73">
+        <v>1</v>
+      </c>
+      <c r="B5" s="93">
+        <v>1</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="73" t="s">
         <v>131</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>93</v>
+      <c r="E5" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="95"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="73">
+        <v>2</v>
+      </c>
+      <c r="B6" s="93">
+        <v>2</v>
+      </c>
+      <c r="C6" s="93"/>
+      <c r="D6" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="95"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="78">
+        <v>1</v>
+      </c>
+      <c r="B12" s="78" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="70" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="78">
+        <v>2</v>
+      </c>
+      <c r="B13" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="30">
+        <v>2</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="78">
+        <v>3</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <mergeCells count="10">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="75"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="96" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="96" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="96" t="s">
+        <v>166</v>
+      </c>
+      <c r="O1" s="96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="97" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C3" s="75" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" s="75">
+        <v>1</v>
+      </c>
+      <c r="O3" s="75">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C6" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="75">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C7" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C8" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C9" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="75">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/gd/主界面/loading功能设计.xlsx
+++ b/gd/主界面/loading功能设计.xlsx
@@ -4,59 +4,61 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
     <sheet name="loading逻辑" sheetId="1" r:id="rId2"/>
     <sheet name="配置结构" sheetId="2" r:id="rId3"/>
     <sheet name="任务拆分" sheetId="4" r:id="rId4"/>
+    <sheet name="策划验收" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_1个展示内容_主题为金币和经验试炼的果子图">loading逻辑!$E$101</definedName>
-    <definedName name="资源与坐标组对应关系配置表loadinglocation.csv">loading逻辑!$L$32</definedName>
+    <definedName name="_1个展示内容_主题为金币和经验试炼的果子图">loading逻辑!$E$100</definedName>
+    <definedName name="从不同类型的对局结束的loading界面从默认组读取">loading逻辑!$D$18</definedName>
+    <definedName name="资源与坐标组对应关系配置表loadinglocation.csv">loading逻辑!$L$33</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="189">
   <si>
     <t>触发条件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>游戏中进行场景切换时触发Loading页面，例：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>战斗对局（剧情副本、通天塔副本等各种副本）—&gt; 游戏主界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>游戏主界面—&gt; 战斗对局（剧情副本、通天塔副本、PVP战斗等各种战斗）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>页面显示逻辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>具体流程如下</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>目标场景：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>组1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>默认组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>组2</t>
@@ -72,431 +74,423 @@
   </si>
   <si>
     <t>1.当加载Loading界面时，首先读取要加载的目标场景</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>加载逻辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>进入Loading页面后，加载下一个场景内容，根据加载进度，进度条逐渐增多，直到加载完成，进度条加载到100%</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>逻辑部分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>UI部分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>加载条</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>背景图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>用于展示一些游戏的提示信息。</t>
   </si>
   <si>
     <t>加载条</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>由0到100%，用于展示当前加载进度，会随着加载进行而不断增长，直到100%进入下一个页面。进度条上会有当前加载状态的百分比提示。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示在进度条上方，如示意图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示的提示信息需求在一行显示不下时，可换行显示，换行时，提示信息向上顶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>比如：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>一行时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>两行时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>场景</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>序号，从1开始</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.0.1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>loading功能设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>规划loading功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">svn://10.21.2.47/gd/主界面/loading功能设计.xlsx
 </t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>展示内容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>每个目标场景对应着若干张loading图及若干条提示信息。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3.若目标场景没有配置loading图和提示信息，则随机使用默认组中的一张loading图和一条提示信息作为当前loading界面</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>背景图会一直保持适应窗口大小，跟随客户端窗口改变大小。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>示例：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>美术需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1张背景图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2. 通天塔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1. 试炼组（金币+经验）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3. 展示宠物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>展示内容为稀有度为S级及以上的怪物各一个</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>剧情副本组（instanceEntry表中的“type”=1）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通天塔组（instanceEntry表中的“type”=3）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会任务副本组（instanceEntry表中的“type”=4）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>组6</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PS：默认组是指当随机到的内容没有配置内容的时候，则随机使用默认组中的一张loading图和一条提示信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>提示文字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>背景图+展示内容+提示文字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>scene</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>tips</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>loading图及提示信息相互独立，选中目标场景这组后会随机显示一张loading图和一条提示信息。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>试炼组（金币+经验）（instanceEntry表中的“type”=2）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>填写多语言id，多个用逗号隔开</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>Loading页面触发时，会根据目标场景（即将进入的下一个场景，Loading页面将要加载的场景）来显示相应的loading图和提示信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>提示信息：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>多语言ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>Loading页面中正中间用于展示的图片，即上文中描述的loading图，包含背景图、展示内容、提示文字三部分。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>显示内容从配置读取</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊的：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家登录游戏到进入主界面的loading背景不走上面的通用逻辑，而是使用一张固定的美术图（是单纯的一张图，不是背景图、展示内容、提示信息拼的）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置结构：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>loading图包含背景图、展示内容、提示文字三部分。（这三个东西是啥可以看下下面的UI示意图）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>目标场景具体分组如下：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示文字与展示内容的内容对应关系：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示文字、展示内容与背景图的位置对应关系：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置只给出坐标组编号，所有坐标组的实际位置都存在一个prefab里</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>展示内容组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示信息组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2.Loading页面会对当前页面对应的目标场景，选出将要显示的loading图和提示信息。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>loading图：</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>从loading表里面该目标场景对应的的提示信息组随机抽一个</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PVP战斗的loading加载界面存在特殊逻辑，详见文档《PVP玩法设计》的“PVPloading界面”切页</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>修改配置方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>towerBoss_instance_title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>loading配置表loading.csv</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>一组提示文字与展示内容在背景图上的位置固定，对应一个坐标组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1张背景图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1个展示内容，主题为金币和经验试炼的果子图</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1个展示内容，主题三个塔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>三方后回归</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>试炼和通天塔的美术资源需求改为各1张</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>id</t>
@@ -512,7 +506,7 @@
   </si>
   <si>
     <t>提示文字与展示内容在背景图上的具体位置通过配置表loadinglocation.csv确定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>loadinglocation.csv表中给出所有提示文字+展示内容组与坐标组的对应关系</t>
@@ -520,27 +514,27 @@
   <si>
     <t>配置使用该loading信息的目标场景组
 1=默认；2=剧情副本组；3=试炼组（金币+经验）；4=通天塔组；5=公会任务副本组；6=pvp</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>修改配置方式（拆成2个表）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>X张背景图（X由美术根据效果定）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>资源与坐标组对应关系配置表loadinglocation.csv</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>picture</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>aaa,bbbb,vvvv</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -556,7 +550,7 @@
       </rPr>
       <t>uapo,langren,xiaochou</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>huapo</t>
@@ -578,57 +572,57 @@
       </rPr>
       <t>uapo,langren</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>xiaochou</t>
   </si>
   <si>
     <t>展示内容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>在该行配置的目标场景下，能够出现的展示内容。配置的是内容与loadinglocation表的picture字段对应。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>填写展示内容</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>picture</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>asset</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>展示内容资源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置使用该行配置的展示内容资源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>从1开始，对应存储左边关系的prefab里的坐标组编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>背景</t>
   </si>
   <si>
     <t>背景</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置使用该行配置的展示内容配套的资源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>background</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -644,43 +638,43 @@
       </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>background2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>background3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示文字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>配置使用该行配置的展示内容对应的提示文字的多语言id</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>tower_instance_title</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如果展示内容为怪物，则显示怪物名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如果展示内容为试炼玩法，则显示“愿望树”</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>如果展示内容为通天塔玩法，则显示“通天塔“</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>从loading表的展示内容组里随机抽取一个展示内容，然后索引到loadinglocation表，确定该展示内容使用的坐标组编号、背景图及对应提示文字</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -696,7 +690,7 @@
       </rPr>
       <t>aa</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -712,7 +706,7 @@
       </rPr>
       <t>ddd</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -728,43 +722,43 @@
       </rPr>
       <t>ggg</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>a</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>b</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>v</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>添加任务拆分</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位：d）</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>策划验收+配置任务</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>美术</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>2016.2.26</t>
-    <phoneticPr fontId="15" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>loading</t>
@@ -777,17 +771,99 @@
   </si>
   <si>
     <t>0.5*10</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉了登陆界面到主界面使用特殊逻辑的需求</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次验收内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体内容</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收结果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.3.8</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>在该行配置的目标场景下，能够出现的展示内容。配置的是内容与loadinglocation表的picture字段对应。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加策划验收结果</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        从不同类型的对局结束的loading界面从默认组读取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>从不同类型的对局结束的loading界面从默认组读取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进入PVP的提示tips没从loading表读取</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)加载进度数字从0直接变100，没有中间涨数字的过程</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,6 +871,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -923,14 +1013,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -946,6 +1028,20 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1178,276 +1274,298 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 2 2 2" xfId="2"/>
     <cellStyle name="常规 20" xfId="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -1456,12 +1574,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66CCFF"/>
       <color rgb="FF00CC99"/>
       <color rgb="FF33CCCC"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FF00FF99"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FF66CCFF"/>
       <color rgb="FF00CCFF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FF3399FF"/>
@@ -1485,13 +1603,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>49695</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>173934</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1537,13 +1655,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>41412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1591,13 +1709,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>140804</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>306456</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1667,13 +1785,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>579783</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>115956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>629478</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1717,13 +1835,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>347870</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>624095</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1767,13 +1885,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>326336</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>86139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>602561</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>89452</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1817,13 +1935,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>607945</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>160680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>646046</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>16563</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1882,13 +2000,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>107673</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>33130</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1936,13 +2054,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8281</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2012,13 +2130,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>309771</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>19876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>347871</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>82824</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2077,13 +2195,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>91117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>16574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2131,13 +2249,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>414130</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>8281</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2207,13 +2325,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>309771</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>3320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>347871</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>66268</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2272,13 +2390,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>303143</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>351185</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>61293</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -2288,7 +2406,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3052969" y="12556436"/>
+          <a:off x="3052969" y="12349371"/>
           <a:ext cx="1422955" cy="1916596"/>
           <a:chOff x="2804491" y="6004892"/>
           <a:chExt cx="1422955" cy="1916596"/>
@@ -2535,13 +2653,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>354496</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>139148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>588065</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>140805</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2585,14 +2703,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>168115</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2632,14 +2750,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>612914</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>82826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>430695</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>66260</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2679,13 +2797,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8281</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>3312</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>604629</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>91108</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2726,13 +2844,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>289892</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>563219</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>132522</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2780,13 +2898,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>16566</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>99391</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>298174</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>82827</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2862,13 +2980,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>599663</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>119268</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>637764</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>182216</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2927,14 +3045,14 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>265044</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>8284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>422414</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2974,14 +3092,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>177248</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>102705</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>682486</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>86139</xdr:rowOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>86140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3021,13 +3139,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>260072</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>23191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>168964</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>110987</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3068,13 +3186,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>491989</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>19879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>207067</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>149087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3122,13 +3240,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>268357</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>119270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>549965</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>102706</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3204,13 +3322,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>163998</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>139147</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>202098</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>202095</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3269,14 +3387,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>207065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161045</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>99392</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3316,13 +3434,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>599661</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>94424</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>417442</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>77859</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3363,13 +3481,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3311</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>14909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>599659</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>102705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3410,13 +3528,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>276639</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>11597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>549966</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>144119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3464,13 +3582,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3313</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>110989</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>284921</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>94425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3546,13 +3664,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>586410</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>130866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>624511</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>193813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3611,13 +3729,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>157369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>596348</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>165653</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3661,13 +3779,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>629478</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>119269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>596348</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>90</xdr:row>
       <xdr:rowOff>124239</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3711,13 +3829,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>331304</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>107675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>49696</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3782,13 +3900,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>682487</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>53010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>516835</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>202096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3853,13 +3971,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>371060</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>97737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>205408</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>39758</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3924,13 +4042,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>467138</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>177248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>588065</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>24847</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3989,13 +4107,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>182217</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4039,13 +4157,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>521807</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>54666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>339587</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>66261</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4083,6 +4201,49 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554937</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>24850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>128277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9508437" y="422415"/>
+          <a:ext cx="3594652" cy="2397710"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4375,10 +4536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4518,17 +4679,17 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -4537,11 +4698,11 @@
         <v>40</v>
       </c>
       <c r="C12" s="20"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -4552,11 +4713,11 @@
       <c r="C13" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="86"/>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -4565,11 +4726,11 @@
         <v>43</v>
       </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -4578,11 +4739,11 @@
         <v>44</v>
       </c>
       <c r="C15" s="21"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -4591,11 +4752,11 @@
         <v>45</v>
       </c>
       <c r="C16" s="21"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -4604,11 +4765,11 @@
         <v>46</v>
       </c>
       <c r="C17" s="21"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
@@ -4617,11 +4778,11 @@
         <v>47</v>
       </c>
       <c r="C18" s="23"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="79"/>
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
@@ -4696,61 +4857,87 @@
       <c r="C23" s="24">
         <v>42425</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="G23" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>110</v>
+      <c r="E23" s="35"/>
+      <c r="G23" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C24" s="24">
         <v>42426</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="G24" s="64" t="s">
+      <c r="E24" s="44"/>
+      <c r="G24" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="42" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G25" s="46"/>
+      <c r="H25" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="H24" s="61" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G25" s="65"/>
-      <c r="H25" s="66" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G26" s="65"/>
-      <c r="H26" s="66" t="s">
-        <v>127</v>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G27" s="65"/>
-      <c r="H27" s="70" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="G28" s="65"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="C28" s="24">
+        <v>42437</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="G28" s="68" t="s">
+        <v>174</v>
+      </c>
+      <c r="H28" s="69" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="13" t="s">
+      <c r="C29" s="24"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="69" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E30" s="75"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D32" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E32" s="15" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4766,10 +4953,11 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H25" location="_1个展示内容_主题为金币和经验试炼的果子图" display="试炼和通天塔的美术资源需求改为各1张"/>
     <hyperlink ref="H26" location="资源与坐标组对应关系配置表loadinglocation.csv" display="修改配置方式（拆成2个表）"/>
+    <hyperlink ref="H30" location="从不同类型的对局结束的loading界面从默认组读取" display="从不同类型的对局结束的loading界面从默认组读取"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4778,10 +4966,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4881,7 +5069,7 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -4922,7 +5110,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="55"/>
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -5010,54 +5198,51 @@
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
-      <c r="C19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>155</v>
-      </c>
+      <c r="C21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="6"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
@@ -5068,46 +5253,34 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="J22" s="70" t="s">
-        <v>154</v>
-      </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="78"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="J23" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="M23" s="78"/>
+      <c r="J23" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="59"/>
       <c r="N23" s="30"/>
       <c r="O23" s="30"/>
       <c r="P23" s="30"/>
@@ -5119,121 +5292,133 @@
       <c r="V23" s="30"/>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="M24" s="59"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.35">
-      <c r="B25" s="2"/>
-      <c r="C25" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B26" s="2"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+      <c r="C26" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B27" s="2"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B29" s="2"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B31" s="2"/>
-      <c r="C31" s="32" t="s">
-        <v>97</v>
-      </c>
+      <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -5243,283 +5428,287 @@
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
-      <c r="C32" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="11"/>
+      <c r="C32" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="M32" s="67"/>
-      <c r="N32" s="67"/>
-      <c r="O32" s="67"/>
-      <c r="P32" s="80"/>
-      <c r="R32" s="30"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B33" s="2"/>
       <c r="C33" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="H33" s="59"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="M33" s="67" t="s">
-        <v>140</v>
-      </c>
-      <c r="N33" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="O33" s="67" t="s">
-        <v>148</v>
-      </c>
-      <c r="P33" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q33" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="R33" s="76"/>
+        <v>110</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="61"/>
+      <c r="R33" s="30"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B34" s="2"/>
       <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="93" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="93"/>
+      <c r="F34" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="96"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M34" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="N34" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="O34" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="P34" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q34" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="R34" s="57"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="59"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="68" t="s">
+      <c r="E35" s="93"/>
+      <c r="F35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="H35" s="96"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="M35" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="N35" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="67" t="s">
+      <c r="O35" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="P35" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q35" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="R35" s="57"/>
+    </row>
+    <row r="36" spans="2:18" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+      <c r="C36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="95"/>
+      <c r="F36" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="97" t="s">
+        <v>183</v>
+      </c>
+      <c r="H36" s="98"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="M36" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="N34" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="O34" s="67" t="s">
-        <v>146</v>
-      </c>
-      <c r="P34" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q34" s="67" t="s">
+      <c r="N36" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="R34" s="76"/>
-    </row>
-    <row r="35" spans="2:18" ht="117.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="2"/>
-      <c r="C35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="87"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="82" t="s">
-        <v>123</v>
-      </c>
-      <c r="M35" s="82" t="s">
-        <v>139</v>
-      </c>
-      <c r="N35" s="82" t="s">
-        <v>144</v>
-      </c>
-      <c r="O35" s="83" t="s">
+      <c r="O36" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="P36" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q36" s="64" t="s">
+        <v>141</v>
+      </c>
+      <c r="R36" s="32"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B37" s="52"/>
+      <c r="C37" s="53">
+        <v>1</v>
+      </c>
+      <c r="D37" s="90">
+        <v>1</v>
+      </c>
+      <c r="E37" s="90"/>
+      <c r="F37" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="H37" s="92"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55">
+        <v>1</v>
+      </c>
+      <c r="M37" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="P37" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q37" s="51" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B38" s="52"/>
+      <c r="C38" s="53">
+        <v>2</v>
+      </c>
+      <c r="D38" s="90">
+        <v>2</v>
+      </c>
+      <c r="E38" s="90"/>
+      <c r="F38" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="H38" s="92"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55">
+        <v>2</v>
+      </c>
+      <c r="M38" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="P35" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q35" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="R35" s="33"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B36" s="71"/>
-      <c r="C36" s="72">
+      <c r="P38" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q38" s="51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="53"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55">
+        <v>3</v>
+      </c>
+      <c r="M39" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="N39" s="1">
         <v>1</v>
       </c>
-      <c r="D36" s="89">
-        <v>1</v>
-      </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="91" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="90"/>
-      <c r="I36" s="74"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74">
-        <v>1</v>
-      </c>
-      <c r="M36" s="74" t="s">
-        <v>133</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-      <c r="O36" s="70" t="s">
-        <v>150</v>
-      </c>
-      <c r="P36" s="70" t="s">
+      <c r="O39" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="P39" s="51" t="s">
         <v>159</v>
       </c>
-      <c r="Q36" s="70" t="s">
+      <c r="Q39" s="51" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B37" s="71"/>
-      <c r="C37" s="72">
-        <v>2</v>
-      </c>
-      <c r="D37" s="89">
-        <v>2</v>
-      </c>
-      <c r="E37" s="89"/>
-      <c r="F37" s="72" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="H37" s="90"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74">
-        <v>2</v>
-      </c>
-      <c r="M37" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="N37" s="1">
-        <v>2</v>
-      </c>
-      <c r="O37" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="P37" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q37" s="70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B38" s="71"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="74"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74">
-        <v>3</v>
-      </c>
-      <c r="M38" s="74" t="s">
-        <v>136</v>
-      </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-      <c r="O38" s="70" t="s">
-        <v>151</v>
-      </c>
-      <c r="P38" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q38" s="70" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-    </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
+      <c r="E40" s="53"/>
+      <c r="F40" s="53"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B41" s="2"/>
       <c r="C41" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="3" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -5529,315 +5718,304 @@
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="F43" s="88"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
+      <c r="C43" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B44" s="2"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="36"/>
+        <v>104</v>
+      </c>
+      <c r="E44" s="65" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="44"/>
+      <c r="O44" s="44"/>
       <c r="P44" s="30"/>
       <c r="Q44" s="30"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B47" s="2"/>
-      <c r="C47" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="D47" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="B48" s="2"/>
+      <c r="B48" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B49" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="3"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B50" s="7"/>
-      <c r="C50" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B51" s="7"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.15">
+      <c r="A51" s="25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="A52" s="25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.15">
-      <c r="A53" s="25"/>
-      <c r="C53" s="27" t="s">
+      <c r="A52" s="25"/>
+      <c r="C52" s="27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I59" s="1" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I58" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I61" s="1" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I60" s="1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I63" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I64" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="I65" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B68" s="37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B70" s="9" t="s">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B67" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B69" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C70" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C71" s="27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C72" s="27" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C73" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C74" s="1" t="s">
         <v>70</v>
       </c>
     </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="C88" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="C89" s="27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="K90" s="1" t="s">
+      <c r="K89" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.15">
-      <c r="K92" s="1" t="s">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.15">
+      <c r="K91" s="1" t="s">
         <v>20</v>
       </c>
     </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="C97" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C98" s="9" t="s">
-        <v>71</v>
+      <c r="D98" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D99" s="1" t="s">
-        <v>74</v>
+      <c r="E99" s="42" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E100" s="61" t="s">
+      <c r="E100" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="D101" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E102" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="E103" s="43" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E101" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F101" s="63"/>
-      <c r="G101" s="63"/>
-      <c r="H101" s="63"/>
-    </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D102" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E103" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="K103" s="30"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E104" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="F104" s="63"/>
-      <c r="G104" s="63"/>
-      <c r="K104" s="30"/>
+      <c r="D104" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="D105" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="E105" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E106" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="F106" s="63"/>
-      <c r="G106" s="63"/>
+      <c r="E106" s="41" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="E107" s="42" t="s">
-        <v>76</v>
+      <c r="B107" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B108" s="9" t="s">
-        <v>24</v>
+      <c r="C108" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C109" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C110" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C111" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="C112" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D115" s="1" t="s">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="D114" s="1" t="s">
         <v>29</v>
       </c>
     </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B118" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B119" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C120" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D36:E36"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D38:E38"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G38:H38"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D36:E36"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5849,7 +6027,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5862,223 +6040,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
+      <c r="A1" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
       <c r="E1" s="30"/>
-      <c r="F1" s="73"/>
+      <c r="F1" s="54"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="92"/>
+      <c r="E2" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="102"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="92"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="102" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="102"/>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>126</v>
-      </c>
-      <c r="C4" s="58"/>
+      <c r="B4" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="95"/>
       <c r="D4" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="103" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" s="104"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="54">
+        <v>1</v>
+      </c>
+      <c r="B5" s="99">
+        <v>1</v>
+      </c>
+      <c r="C5" s="99"/>
+      <c r="D5" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="100" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="101"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="54">
+        <v>2</v>
+      </c>
+      <c r="B6" s="99">
+        <v>2</v>
+      </c>
+      <c r="C6" s="99"/>
+      <c r="D6" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="101"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="F4" s="85"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="73">
+      <c r="C9" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="59">
         <v>1</v>
       </c>
-      <c r="B5" s="93">
-        <v>1</v>
-      </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="73" t="s">
+      <c r="B12" s="59" t="s">
         <v>131</v>
-      </c>
-      <c r="E5" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="F5" s="95"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="73">
-        <v>2</v>
-      </c>
-      <c r="B6" s="93">
-        <v>2</v>
-      </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="73" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="95"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="80" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="B10" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="80" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" s="80" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10" s="80" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="77" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="81" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="78">
-        <v>1</v>
-      </c>
-      <c r="B12" s="78" t="s">
-        <v>133</v>
       </c>
       <c r="C12" s="30">
         <v>1</v>
       </c>
-      <c r="D12" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>162</v>
+      <c r="D12" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="78">
+      <c r="A13" s="59">
         <v>2</v>
       </c>
-      <c r="B13" s="78" t="s">
-        <v>134</v>
+      <c r="B13" s="59" t="s">
+        <v>132</v>
       </c>
       <c r="C13" s="30">
         <v>2</v>
       </c>
-      <c r="D13" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>163</v>
+      <c r="D13" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="78">
+      <c r="A14" s="59">
         <v>3</v>
       </c>
-      <c r="B14" s="78" t="s">
-        <v>136</v>
+      <c r="B14" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="30">
         <v>1</v>
       </c>
-      <c r="D14" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>164</v>
+      <c r="D14" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6094,7 +6272,7 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -6105,83 +6283,144 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="75"/>
+    <col min="1" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="96" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B2" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" s="67" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C3" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="56">
+        <v>1</v>
+      </c>
+      <c r="O3" s="56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="67" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C6" s="56" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="96" t="s">
-        <v>166</v>
-      </c>
-      <c r="O1" s="96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B2" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="L2" s="97" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C3" s="75" t="s">
+      <c r="H6" s="56">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C7" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="H3" s="75">
+      <c r="H7" s="56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C8" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="56">
         <v>1</v>
       </c>
-      <c r="O3" s="75">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B5" s="97" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="H6" s="75">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="75" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="C9" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="H7" s="75" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="75">
+      <c r="H9" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="75" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="75">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="69"/>
+    <col min="3" max="3" width="28.125" style="69" customWidth="1"/>
+    <col min="4" max="4" width="44.25" style="69" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="69"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="73" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="72" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3" s="69">
+        <v>1</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E4" s="105" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>